--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_49.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_49.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_8</t>
+          <t>model_1_49_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995286813352962</v>
+        <v>0.9478109224226283</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8233799683082964</v>
+        <v>0.7236148706645001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8170518608898965</v>
+        <v>0.7756282688647032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999738523494958</v>
+        <v>0.9641820170168238</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001961876524545397</v>
+        <v>0.1675419271775195</v>
       </c>
       <c r="G2" t="n">
-        <v>1.181058965182888</v>
+        <v>1.848188632502989</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6543948856542403</v>
+        <v>0.8025646724504879</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001301730374451604</v>
+        <v>0.07960847250090934</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09989486021531808</v>
+        <v>1.043761234574949</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04429307535659944</v>
+        <v>0.4093188575884569</v>
       </c>
       <c r="L2" t="n">
-        <v>1.030164394541046</v>
+        <v>0.9289340220223024</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04499064701663457</v>
+        <v>0.4157652204267312</v>
       </c>
       <c r="N2" t="n">
-        <v>142.4677077065649</v>
+        <v>37.57304329506427</v>
       </c>
       <c r="O2" t="n">
-        <v>283.8028802497813</v>
+        <v>74.53762688329009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_7</t>
+          <t>model_1_49_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995294089318999</v>
+        <v>0.9477824390796874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8233266008138587</v>
+        <v>0.7235023296036311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.817022730572857</v>
+        <v>0.775726113042198</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997690047408616</v>
+        <v>0.9643930938188062</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001958847884257682</v>
+        <v>0.1676333668884763</v>
       </c>
       <c r="G3" t="n">
-        <v>1.181415833863928</v>
+        <v>1.848941195095224</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6544990831092177</v>
+        <v>0.8022146895009203</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001149983036244522</v>
+        <v>0.07913933659802821</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09780702127579356</v>
+        <v>1.042435427297448</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0442588735086839</v>
+        <v>0.4094305397603802</v>
       </c>
       <c r="L3" t="n">
-        <v>1.030117828358406</v>
+        <v>0.9288952361936169</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04495590652380366</v>
+        <v>0.415878661481221</v>
       </c>
       <c r="N3" t="n">
-        <v>142.4707975854488</v>
+        <v>37.57195204860495</v>
       </c>
       <c r="O3" t="n">
-        <v>283.8059701286653</v>
+        <v>74.53653563683078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_9</t>
+          <t>model_1_49_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995761584950265</v>
+        <v>0.947752883821531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8232625827864417</v>
+        <v>0.7233881459280629</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8159860220259654</v>
+        <v>0.7758243082253402</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996978302257032</v>
+        <v>0.9646048128871753</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001764251579678308</v>
+        <v>0.1677282477551175</v>
       </c>
       <c r="G4" t="n">
-        <v>1.181843922708041</v>
+        <v>1.849704741859516</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6582073294696338</v>
+        <v>0.8018634510245046</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00150431708340314</v>
+        <v>0.07866877320421319</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0961752501686081</v>
+        <v>1.041091097449564</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04200299488939221</v>
+        <v>0.4095463926774566</v>
       </c>
       <c r="L4" t="n">
-        <v>1.027125856318307</v>
+        <v>0.9288549907357018</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04266450007130943</v>
+        <v>0.4159963389659309</v>
       </c>
       <c r="N4" t="n">
-        <v>142.6800574254028</v>
+        <v>37.57082036429727</v>
       </c>
       <c r="O4" t="n">
-        <v>284.0152299686192</v>
+        <v>74.53540395252308</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995201920358738</v>
+        <v>0.947722226991903</v>
       </c>
       <c r="C5" t="n">
-        <v>0.823097104539823</v>
+        <v>0.7232722482015239</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8174998359669327</v>
+        <v>0.775922608724673</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998743563890001</v>
+        <v>0.9648170720806081</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001997213460028251</v>
+        <v>0.1678266649825423</v>
       </c>
       <c r="G5" t="n">
-        <v>1.182950476505138</v>
+        <v>1.850479750490542</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6527925047787695</v>
+        <v>0.8015118358381815</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000625502106845512</v>
+        <v>0.07819700933712433</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0950219144854154</v>
+        <v>1.039726850107543</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04469019422679041</v>
+        <v>0.4096665289995539</v>
       </c>
       <c r="L5" t="n">
-        <v>1.030707709704075</v>
+        <v>0.9288132452655701</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04539402011205782</v>
+        <v>0.416118367315009</v>
       </c>
       <c r="N5" t="n">
-        <v>142.4320046798223</v>
+        <v>37.56964717652369</v>
       </c>
       <c r="O5" t="n">
-        <v>283.7671772230387</v>
+        <v>74.53423076474951</v>
       </c>
     </row>
     <row r="6">
@@ -708,144 +708,144 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995155962582878</v>
+        <v>0.947690462286223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8230108417414378</v>
+        <v>0.7231546236472579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8175931095785612</v>
+        <v>0.776021168659828</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998930734311379</v>
+        <v>0.9650297791810361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002016343506922604</v>
+        <v>0.1679286388102644</v>
       </c>
       <c r="G6" t="n">
-        <v>1.183527316235144</v>
+        <v>1.85126630642653</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6524588704782887</v>
+        <v>0.8011592926649655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000532321489081486</v>
+        <v>0.07772424995915693</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09368849893334605</v>
+        <v>1.038343068708911</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04490371373196881</v>
+        <v>0.4097909696543646</v>
       </c>
       <c r="L6" t="n">
-        <v>1.031001839469582</v>
+        <v>0.9287699911982611</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04561090233600158</v>
+        <v>0.416244767785738</v>
       </c>
       <c r="N6" t="n">
-        <v>142.4129391058984</v>
+        <v>37.5684323176106</v>
       </c>
       <c r="O6" t="n">
-        <v>283.7481116491148</v>
+        <v>74.53301590583642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_3</t>
+          <t>model_1_49_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994823084382284</v>
+        <v>0.9476574993333517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8228032655168057</v>
+        <v>0.7230352843734138</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8179963009653068</v>
+        <v>0.7761198140273851</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999413435431137</v>
+        <v>0.9652430589867711</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002154904946599521</v>
+        <v>0.1680344593555948</v>
       </c>
       <c r="G7" t="n">
-        <v>1.184915379405059</v>
+        <v>1.852064328700232</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6510166782662793</v>
+        <v>0.8008064439050012</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002920143497190701</v>
+        <v>0.07725021769559179</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09231405256892516</v>
+        <v>1.03693912255638</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04642095374504407</v>
+        <v>0.4099200645925921</v>
       </c>
       <c r="L7" t="n">
-        <v>1.033132259953383</v>
+        <v>0.9287251054752024</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04715203736259919</v>
+        <v>0.4163758958401949</v>
       </c>
       <c r="N7" t="n">
-        <v>142.2800173294114</v>
+        <v>37.56717241080051</v>
       </c>
       <c r="O7" t="n">
-        <v>283.6151898726278</v>
+        <v>74.53175599902633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_4</t>
+          <t>model_1_49_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994929502603959</v>
+        <v>0.9476233656309544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8227783670657597</v>
+        <v>0.7229141599757114</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8179228281638433</v>
+        <v>0.776218613049204</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999348872584009</v>
+        <v>0.9654568232752918</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002110608077724309</v>
+        <v>0.1681440383431303</v>
       </c>
       <c r="G8" t="n">
-        <v>1.18508187546185</v>
+        <v>1.852874288105395</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6512794862169169</v>
+        <v>0.8004530455326511</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003241562123899668</v>
+        <v>0.07677510862838458</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09165308865645275</v>
+        <v>1.035529641517621</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04594135476587852</v>
+        <v>0.4100537017795722</v>
       </c>
       <c r="L8" t="n">
-        <v>1.032451183334665</v>
+        <v>0.928678625540023</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04666488517893488</v>
+        <v>0.4165116376792818</v>
       </c>
       <c r="N8" t="n">
-        <v>142.3215583690351</v>
+        <v>37.56586859164293</v>
       </c>
       <c r="O8" t="n">
-        <v>283.6567309122515</v>
+        <v>74.53045217986875</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994735169130402</v>
+        <v>0.9475879991851945</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8227712557219693</v>
+        <v>0.7227912449985663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8181853406534654</v>
+        <v>0.7763176473515061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999484841120674</v>
+        <v>0.9656710697134065</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002191499904900919</v>
+        <v>0.168257574790891</v>
       </c>
       <c r="G9" t="n">
-        <v>1.185129429050521</v>
+        <v>1.853696221123536</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6503404942628874</v>
+        <v>0.8000988055756552</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002564658575268701</v>
+        <v>0.0762989279432498</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0928934367021142</v>
+        <v>1.03411073831193</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04681345858725799</v>
+        <v>0.4101921193671216</v>
       </c>
       <c r="L9" t="n">
-        <v>1.033694917565427</v>
+        <v>0.928630466975584</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04755072376371709</v>
+        <v>0.4166522352054683</v>
       </c>
       <c r="N9" t="n">
-        <v>142.2463381629998</v>
+        <v>37.5645185808506</v>
       </c>
       <c r="O9" t="n">
-        <v>283.5815107062162</v>
+        <v>74.52910216907642</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994635998709741</v>
+        <v>0.9475514040478537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8226984546806638</v>
+        <v>0.7226664986972531</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8183026612569949</v>
+        <v>0.7764168564334535</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999561219048878</v>
+        <v>0.9658856636095352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002232779857254868</v>
+        <v>0.1683750556914937</v>
       </c>
       <c r="G10" t="n">
-        <v>1.185616249948949</v>
+        <v>1.854530400214821</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6499208452667018</v>
+        <v>0.7997439404420025</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002184419941341088</v>
+        <v>0.07582197500352544</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09258362705552456</v>
+        <v>1.032670849951379</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04725230002079124</v>
+        <v>0.4103352966678515</v>
       </c>
       <c r="L10" t="n">
-        <v>1.034329608257657</v>
+        <v>0.928580635299205</v>
       </c>
       <c r="M10" t="n">
-        <v>0.047996476511148</v>
+        <v>0.4167976674055598</v>
       </c>
       <c r="N10" t="n">
-        <v>142.2090157941536</v>
+        <v>37.56312262698596</v>
       </c>
       <c r="O10" t="n">
-        <v>283.54418833737</v>
+        <v>74.52770621521178</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994428498758231</v>
+        <v>0.9475134753469756</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8226077777039711</v>
+        <v>0.7225399646389323</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8184268937063</v>
+        <v>0.7765162410773936</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999596855165768</v>
+        <v>0.9661006388849306</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00231915226603005</v>
+        <v>0.1684968177140361</v>
       </c>
       <c r="G11" t="n">
-        <v>1.186222607309622</v>
+        <v>1.855376534045448</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6494764729989491</v>
+        <v>0.7993884473332814</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002007009677364581</v>
+        <v>0.07534417441638125</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09265944673420971</v>
+        <v>1.031210586336435</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04815757745184085</v>
+        <v>0.4104836387897039</v>
       </c>
       <c r="L11" t="n">
-        <v>1.035657607947321</v>
+        <v>0.9285289877065199</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0489160111567912</v>
+        <v>0.4169483457675437</v>
       </c>
       <c r="N11" t="n">
-        <v>142.1331071253059</v>
+        <v>37.56167683067635</v>
       </c>
       <c r="O11" t="n">
-        <v>283.4682796685223</v>
+        <v>74.52626041890217</v>
       </c>
     </row>
   </sheetData>
